--- a/docs/source/recursos/milpa_apic/tabla_def_mil_mil_17feb21.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_def_mil_mil_17feb21.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8DF26A-A7E0-4FDB-8333-5C8943C2ED65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29EAA6-661D-4D7C-A522-C9BF68D3DA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="420" windowWidth="12795" windowHeight="10185" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
+    <sheet name="api" sheetId="2" r:id="rId1"/>
+    <sheet name="milpa" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Infraestructura</t>
   </si>
@@ -165,6 +166,21 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>Distancia a asentamientos</t>
+  </si>
+  <si>
+    <t>Fuentes de suministro de agua</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Rural-urbana</t>
+  </si>
+  <si>
+    <t>Urbano</t>
   </si>
 </sst>
 </file>
@@ -535,11 +551,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA0FB65-849C-4571-9395-41AA34CD8565}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0191307-F977-47E2-8681-ABE9B769339C}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +920,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -611,7 +931,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
